--- a/data/trans_orig/IP19C05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEDC9ACF-C042-4C74-93A4-89DF5121F1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{908046FA-8C7F-4054-952B-6721ADA21175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6C378BF7-B58F-45A4-8BBD-6A6221EB0FF5}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5DB3889C-52D5-4F60-9E45-8E1B167842EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -106,6 +106,33 @@
     <t>2,86%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -157,33 +184,6 @@
     <t>2,25%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
     <t>99,02%</t>
   </si>
   <si>
@@ -253,6 +253,54 @@
     <t>4,34%</t>
   </si>
   <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
     <t>97,5%</t>
   </si>
   <si>
@@ -271,9 +319,6 @@
     <t>97,58%</t>
   </si>
   <si>
-    <t>96,04%</t>
-  </si>
-  <si>
     <t>98,64%</t>
   </si>
   <si>
@@ -298,51 +343,6 @@
     <t>1,36%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
     <t>98,3%</t>
   </si>
   <si>
@@ -412,6 +412,54 @@
     <t>5,78%</t>
   </si>
   <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
     <t>95,26%</t>
   </si>
   <si>
@@ -458,54 +506,6 @@
   </si>
   <si>
     <t>4,5%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
   </si>
   <si>
     <t>98,33%</t>
@@ -939,7 +939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449D682E-F1CE-4944-A023-028E8FAEDE09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4330A993-D5A8-4133-BA34-68B252E5DBBB}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1212,10 +1212,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>340</v>
+        <v>169</v>
       </c>
       <c r="D7" s="7">
-        <v>227533</v>
+        <v>111031</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1224,37 +1224,37 @@
         <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7">
+        <v>156</v>
+      </c>
+      <c r="I7" s="7">
+        <v>105428</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="7">
-        <v>326</v>
-      </c>
-      <c r="I7" s="7">
-        <v>219885</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="7">
+        <v>325</v>
+      </c>
+      <c r="N7" s="7">
+        <v>216459</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="7">
-        <v>666</v>
-      </c>
-      <c r="N7" s="7">
-        <v>447419</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1263,49 +1263,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>2847</v>
+        <v>685</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>2745</v>
+        <v>642</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M8" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>5591</v>
+        <v>1327</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1314,10 +1314,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>344</v>
+        <v>170</v>
       </c>
       <c r="D9" s="7">
-        <v>230380</v>
+        <v>111716</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1329,10 +1329,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>330</v>
+        <v>157</v>
       </c>
       <c r="I9" s="7">
-        <v>222630</v>
+        <v>106070</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1344,10 +1344,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>674</v>
+        <v>327</v>
       </c>
       <c r="N9" s="7">
-        <v>453010</v>
+        <v>217786</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1361,55 +1361,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>169</v>
+        <v>340</v>
       </c>
       <c r="D10" s="7">
-        <v>111031</v>
+        <v>227533</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7">
-        <v>156</v>
+        <v>326</v>
       </c>
       <c r="I10" s="7">
-        <v>105428</v>
+        <v>219885</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="M10" s="7">
-        <v>325</v>
+        <v>666</v>
       </c>
       <c r="N10" s="7">
-        <v>216459</v>
+        <v>447419</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1418,46 +1418,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>685</v>
+        <v>2847</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="7">
+        <v>4</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2745</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>642</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>8</v>
+      </c>
+      <c r="N11" s="7">
+        <v>5591</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1327</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>47</v>
@@ -1469,10 +1469,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>170</v>
+        <v>344</v>
       </c>
       <c r="D12" s="7">
-        <v>111716</v>
+        <v>230380</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1484,10 +1484,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>157</v>
+        <v>330</v>
       </c>
       <c r="I12" s="7">
-        <v>106070</v>
+        <v>222630</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1499,10 +1499,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>327</v>
+        <v>674</v>
       </c>
       <c r="N12" s="7">
-        <v>217786</v>
+        <v>453010</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1685,7 +1685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2C9DBF-7232-44BD-8C2E-31CAC7FD678D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1032A420-3D89-4299-BBFC-7847EA33B264}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1958,10 +1958,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>316</v>
+        <v>180</v>
       </c>
       <c r="D7" s="7">
-        <v>214119</v>
+        <v>131958</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>71</v>
@@ -1970,28 +1970,28 @@
         <v>72</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7">
+        <v>169</v>
+      </c>
+      <c r="I7" s="7">
+        <v>120802</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="7">
-        <v>298</v>
-      </c>
-      <c r="I7" s="7">
-        <v>208210</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="M7" s="7">
-        <v>614</v>
+        <v>349</v>
       </c>
       <c r="N7" s="7">
-        <v>422329</v>
+        <v>252761</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>76</v>
@@ -2009,40 +2009,40 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>5498</v>
+        <v>720</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>6</v>
+      </c>
+      <c r="I8" s="7">
+        <v>4323</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="7">
-        <v>7</v>
-      </c>
-      <c r="I8" s="7">
-        <v>4963</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>83</v>
       </c>
       <c r="M8" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N8" s="7">
-        <v>10461</v>
+        <v>5043</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>84</v>
@@ -2060,10 +2060,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>324</v>
+        <v>181</v>
       </c>
       <c r="D9" s="7">
-        <v>219617</v>
+        <v>132678</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2075,10 +2075,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>305</v>
+        <v>175</v>
       </c>
       <c r="I9" s="7">
-        <v>213173</v>
+        <v>125125</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2090,10 +2090,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>629</v>
+        <v>356</v>
       </c>
       <c r="N9" s="7">
-        <v>432790</v>
+        <v>257804</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2107,16 +2107,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>180</v>
+        <v>316</v>
       </c>
       <c r="D10" s="7">
-        <v>131958</v>
+        <v>214119</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>87</v>
@@ -2125,28 +2125,28 @@
         <v>88</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="H10" s="7">
-        <v>169</v>
+        <v>298</v>
       </c>
       <c r="I10" s="7">
-        <v>120802</v>
+        <v>208210</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="M10" s="7">
-        <v>349</v>
+        <v>614</v>
       </c>
       <c r="N10" s="7">
-        <v>252761</v>
+        <v>422329</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>92</v>
@@ -2164,40 +2164,40 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>720</v>
+        <v>5498</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>94</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>4323</v>
+        <v>4963</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>98</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N11" s="7">
-        <v>5043</v>
+        <v>10461</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>99</v>
@@ -2215,10 +2215,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>181</v>
+        <v>324</v>
       </c>
       <c r="D12" s="7">
-        <v>132678</v>
+        <v>219617</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2230,10 +2230,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>175</v>
+        <v>305</v>
       </c>
       <c r="I12" s="7">
-        <v>125125</v>
+        <v>213173</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2245,10 +2245,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>356</v>
+        <v>629</v>
       </c>
       <c r="N12" s="7">
-        <v>257804</v>
+        <v>432790</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2292,7 +2292,7 @@
         <v>104</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>105</v>
@@ -2346,7 +2346,7 @@
         <v>113</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
@@ -2431,7 +2431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE0942D-C19E-4E47-82A0-5C35F4012CB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3804EAA-CA76-4E1E-8171-54EFCC713BA8}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2704,25 +2704,25 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>297</v>
+        <v>190</v>
       </c>
       <c r="D7" s="7">
-        <v>219160</v>
+        <v>132953</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>304</v>
+        <v>193</v>
       </c>
       <c r="I7" s="7">
-        <v>215192</v>
+        <v>127690</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>126</v>
@@ -2734,10 +2734,10 @@
         <v>128</v>
       </c>
       <c r="M7" s="7">
-        <v>601</v>
+        <v>383</v>
       </c>
       <c r="N7" s="7">
-        <v>434352</v>
+        <v>260643</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>129</v>
@@ -2755,25 +2755,25 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>5440</v>
+        <v>713</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>133</v>
       </c>
       <c r="H8" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>6990</v>
+        <v>2114</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>134</v>
@@ -2785,10 +2785,10 @@
         <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>12430</v>
+        <v>2827</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>137</v>
@@ -2806,10 +2806,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>304</v>
+        <v>191</v>
       </c>
       <c r="D9" s="7">
-        <v>224600</v>
+        <v>133666</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2821,10 +2821,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>314</v>
+        <v>196</v>
       </c>
       <c r="I9" s="7">
-        <v>222182</v>
+        <v>129804</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2836,10 +2836,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>618</v>
+        <v>387</v>
       </c>
       <c r="N9" s="7">
-        <v>446782</v>
+        <v>263470</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2853,31 +2853,31 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>190</v>
+        <v>297</v>
       </c>
       <c r="D10" s="7">
-        <v>132953</v>
+        <v>219160</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H10" s="7">
-        <v>193</v>
+        <v>304</v>
       </c>
       <c r="I10" s="7">
-        <v>127690</v>
+        <v>215192</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>142</v>
@@ -2889,10 +2889,10 @@
         <v>144</v>
       </c>
       <c r="M10" s="7">
-        <v>383</v>
+        <v>601</v>
       </c>
       <c r="N10" s="7">
-        <v>260643</v>
+        <v>434352</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>145</v>
@@ -2910,25 +2910,25 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>713</v>
+        <v>5440</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>149</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I11" s="7">
-        <v>2114</v>
+        <v>6990</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>150</v>
@@ -2940,10 +2940,10 @@
         <v>152</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="N11" s="7">
-        <v>2827</v>
+        <v>12430</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>153</v>
@@ -2961,10 +2961,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>191</v>
+        <v>304</v>
       </c>
       <c r="D12" s="7">
-        <v>133666</v>
+        <v>224600</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2976,10 +2976,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>196</v>
+        <v>314</v>
       </c>
       <c r="I12" s="7">
-        <v>129804</v>
+        <v>222182</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2991,10 +2991,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>387</v>
+        <v>618</v>
       </c>
       <c r="N12" s="7">
-        <v>263470</v>
+        <v>446782</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/IP19C05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{908046FA-8C7F-4054-952B-6721ADA21175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09D0414B-A847-47CE-8EDE-BFB03FD4B185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5DB3889C-52D5-4F60-9E45-8E1B167842EB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{53B4FB2B-71E0-4153-B657-30C6ACFCA5BD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="202">
   <si>
     <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -67,7 +67,25 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
   </si>
   <si>
     <t>No</t>
@@ -76,478 +94,556 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>94,04%</t>
+    <t>55,59%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>94,7%</t>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2015 (Tasa respuesta: 48,78%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
   </si>
   <si>
     <t>96,91%</t>
   </si>
   <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>10/15</t>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>98,76%</t>
   </si>
   <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
   </si>
   <si>
     <t>97,91%</t>
   </si>
   <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2015 (Tasa respuesta: 48,78%)</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
     <t>96,88%</t>
   </si>
   <si>
     <t>98,65%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
   </si>
 </sst>
 </file>
@@ -558,7 +654,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -654,39 +750,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -738,7 +834,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -849,13 +945,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -864,6 +953,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -928,19 +1024,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4330A993-D5A8-4133-BA34-68B252E5DBBB}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227BB47D-E60B-4C0B-A129-5DDAA6B83DD0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1057,10 +1173,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>19635</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1072,34 +1188,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22230</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>41865</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1108,10 +1224,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1893</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1123,34 +1239,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>3906</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>5799</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1159,49 +1275,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>19635</v>
+        <v>1893</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>22230</v>
+        <v>3906</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="N6" s="7">
-        <v>41865</v>
+        <v>5799</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1212,49 +1328,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>169</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>111031</v>
+        <v>685</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>642</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7">
-        <v>156</v>
-      </c>
-      <c r="I7" s="7">
-        <v>105428</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="L7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1327</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="7">
-        <v>325</v>
-      </c>
-      <c r="N7" s="7">
-        <v>216459</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1263,49 +1379,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="D8" s="7">
-        <v>685</v>
+        <v>79733</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="I8" s="7">
-        <v>642</v>
+        <v>83693</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="N8" s="7">
-        <v>1327</v>
+        <v>163426</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1314,102 +1430,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="D9" s="7">
-        <v>111716</v>
+        <v>80418</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="I9" s="7">
-        <v>106070</v>
+        <v>84335</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>327</v>
+        <v>250</v>
       </c>
       <c r="N9" s="7">
-        <v>217786</v>
+        <v>164753</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>340</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>227533</v>
+        <v>1561</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H10" s="7">
-        <v>326</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>219885</v>
+        <v>642</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M10" s="7">
-        <v>666</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>447419</v>
+        <v>2203</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1418,49 +1534,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="D11" s="7">
-        <v>2847</v>
+        <v>104158</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="I11" s="7">
-        <v>2745</v>
+        <v>98551</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>8</v>
+        <v>303</v>
       </c>
       <c r="N11" s="7">
-        <v>5591</v>
+        <v>202709</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1469,102 +1585,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>344</v>
+        <v>158</v>
       </c>
       <c r="D12" s="7">
-        <v>230380</v>
+        <v>105719</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>330</v>
+        <v>148</v>
       </c>
       <c r="I12" s="7">
-        <v>222630</v>
+        <v>99193</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>674</v>
+        <v>306</v>
       </c>
       <c r="N12" s="7">
-        <v>453010</v>
+        <v>204912</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>540</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>358199</v>
+        <v>1286</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H13" s="7">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>347543</v>
+        <v>2103</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M13" s="7">
-        <v>1057</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>705743</v>
+        <v>3389</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1573,49 +1689,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>259</v>
       </c>
       <c r="D14" s="7">
-        <v>3532</v>
+        <v>172415</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>238</v>
       </c>
       <c r="I14" s="7">
-        <v>3387</v>
+        <v>161394</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M14" s="7">
-        <v>10</v>
+        <v>497</v>
       </c>
       <c r="N14" s="7">
-        <v>6918</v>
+        <v>333808</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1624,55 +1740,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>261</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173701</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>241</v>
+      </c>
+      <c r="I15" s="7">
+        <v>163497</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>502</v>
+      </c>
+      <c r="N15" s="7">
+        <v>337197</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3532</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3387</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M16" s="7">
+        <v>10</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6918</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>540</v>
+      </c>
+      <c r="D17" s="7">
+        <v>358199</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="7">
+        <v>517</v>
+      </c>
+      <c r="I17" s="7">
+        <v>347543</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1057</v>
+      </c>
+      <c r="N17" s="7">
+        <v>705743</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>545</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>361731</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>522</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>350930</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1067</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>712661</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1685,8 +1962,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1032A420-3D89-4299-BBFC-7847EA33B264}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927EF88D-7D8C-4BA5-BD28-E030CF2B9651}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1702,7 +1979,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1803,49 +2080,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>13707</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>15693</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M4" s="7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>29399</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1854,49 +2131,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>3298</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>3967</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1905,49 +2182,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>13707</v>
+        <v>669</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>15693</v>
+        <v>3298</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>29399</v>
+        <v>3967</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1958,49 +2235,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>131958</v>
+        <v>720</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>443</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7">
-        <v>169</v>
-      </c>
-      <c r="I7" s="7">
-        <v>120802</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="M7" s="7">
-        <v>349</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>252761</v>
+        <v>1163</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2009,49 +2286,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="D8" s="7">
-        <v>720</v>
+        <v>91344</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="I8" s="7">
-        <v>4323</v>
+        <v>77245</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
-        <v>7</v>
+        <v>232</v>
       </c>
       <c r="N8" s="7">
-        <v>5043</v>
+        <v>168588</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2060,102 +2337,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="D9" s="7">
-        <v>132678</v>
+        <v>92064</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="I9" s="7">
-        <v>125125</v>
+        <v>77688</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>356</v>
+        <v>234</v>
       </c>
       <c r="N9" s="7">
-        <v>257804</v>
+        <v>169751</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>316</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>214119</v>
+        <v>2084</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H10" s="7">
-        <v>298</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>208210</v>
+        <v>4536</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="M10" s="7">
-        <v>614</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>422329</v>
+        <v>6620</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2164,49 +2441,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>187</v>
       </c>
       <c r="D11" s="7">
-        <v>5498</v>
+        <v>130002</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="I11" s="7">
-        <v>4963</v>
+        <v>120550</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="7">
+        <v>359</v>
+      </c>
+      <c r="N11" s="7">
+        <v>250552</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M11" s="7">
-        <v>15</v>
-      </c>
-      <c r="N11" s="7">
-        <v>10461</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,102 +2492,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>324</v>
+        <v>190</v>
       </c>
       <c r="D12" s="7">
-        <v>219617</v>
+        <v>132086</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>305</v>
+        <v>178</v>
       </c>
       <c r="I12" s="7">
-        <v>213173</v>
+        <v>125086</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>629</v>
+        <v>368</v>
       </c>
       <c r="N12" s="7">
-        <v>432790</v>
+        <v>257172</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>515</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>359784</v>
+        <v>3414</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="H13" s="7">
-        <v>491</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>344705</v>
+        <v>4307</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="M13" s="7">
-        <v>1006</v>
+        <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>704488</v>
+        <v>7721</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,49 +2596,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>204</v>
       </c>
       <c r="D14" s="7">
-        <v>6218</v>
+        <v>137769</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="H14" s="7">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="I14" s="7">
-        <v>9286</v>
+        <v>143613</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="M14" s="7">
-        <v>22</v>
+        <v>409</v>
       </c>
       <c r="N14" s="7">
-        <v>15504</v>
+        <v>281382</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,55 +2647,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>209</v>
+      </c>
+      <c r="D15" s="7">
+        <v>141183</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>211</v>
+      </c>
+      <c r="I15" s="7">
+        <v>147920</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>420</v>
+      </c>
+      <c r="N15" s="7">
+        <v>289103</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6218</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="7">
+        <v>13</v>
+      </c>
+      <c r="I16" s="7">
+        <v>9286</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M16" s="7">
+        <v>22</v>
+      </c>
+      <c r="N16" s="7">
+        <v>15504</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>515</v>
+      </c>
+      <c r="D17" s="7">
+        <v>359784</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" s="7">
+        <v>491</v>
+      </c>
+      <c r="I17" s="7">
+        <v>344705</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1006</v>
+      </c>
+      <c r="N17" s="7">
+        <v>704488</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>524</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>366002</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>504</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>353991</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1028</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>719992</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2431,8 +2869,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3804EAA-CA76-4E1E-8171-54EFCC713BA8}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B38C6DF-C94E-4E37-82BD-30682A634CB5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2448,7 +2886,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2549,46 +2987,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>9743</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>10631</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M4" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>20374</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2600,40 +3038,40 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1284</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1819</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -2642,7 +3080,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,49 +3089,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>9743</v>
+        <v>1284</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>10631</v>
+        <v>536</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>20374</v>
+        <v>1819</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,49 +3142,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>132953</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7">
-        <v>193</v>
-      </c>
-      <c r="I7" s="7">
-        <v>127690</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="M7" s="7">
-        <v>383</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>260643</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,49 +3193,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="D8" s="7">
-        <v>713</v>
+        <v>82129</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
+        <v>104</v>
+      </c>
+      <c r="I8" s="7">
+        <v>68060</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2114</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>222</v>
       </c>
       <c r="N8" s="7">
-        <v>2827</v>
+        <v>150189</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2806,102 +3244,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="D9" s="7">
-        <v>133666</v>
+        <v>82129</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="I9" s="7">
-        <v>129804</v>
+        <v>68060</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>387</v>
+        <v>222</v>
       </c>
       <c r="N9" s="7">
-        <v>263470</v>
+        <v>150189</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>297</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>219160</v>
+        <v>1330</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
-        <v>304</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>215192</v>
+        <v>2770</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="M10" s="7">
-        <v>601</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>434352</v>
+        <v>4100</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,49 +3348,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D11" s="7">
-        <v>5440</v>
+        <v>148011</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="I11" s="7">
-        <v>6990</v>
+        <v>146147</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="M11" s="7">
-        <v>17</v>
+        <v>415</v>
       </c>
       <c r="N11" s="7">
-        <v>12430</v>
+        <v>294158</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,102 +3399,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>304</v>
+        <v>207</v>
       </c>
       <c r="D12" s="7">
-        <v>224600</v>
+        <v>149341</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="I12" s="7">
-        <v>222182</v>
+        <v>148917</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>618</v>
+        <v>421</v>
       </c>
       <c r="N12" s="7">
-        <v>446782</v>
+        <v>298258</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>361855</v>
+        <v>4823</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="H13" s="7">
-        <v>514</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>353514</v>
+        <v>6334</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="M13" s="7">
-        <v>1016</v>
+        <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>715369</v>
+        <v>11157</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>52</v>
+        <v>174</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,49 +3503,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="D14" s="7">
-        <v>6153</v>
+        <v>130432</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="I14" s="7">
-        <v>9104</v>
+        <v>138771</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="M14" s="7">
-        <v>21</v>
+        <v>376</v>
       </c>
       <c r="N14" s="7">
-        <v>15257</v>
+        <v>269203</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,55 +3554,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>183</v>
+      </c>
+      <c r="D15" s="7">
+        <v>135255</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>208</v>
+      </c>
+      <c r="I15" s="7">
+        <v>145105</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>391</v>
+      </c>
+      <c r="N15" s="7">
+        <v>280360</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6153</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H16" s="7">
+        <v>13</v>
+      </c>
+      <c r="I16" s="7">
+        <v>9104</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M16" s="7">
+        <v>21</v>
+      </c>
+      <c r="N16" s="7">
+        <v>15257</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>502</v>
+      </c>
+      <c r="D17" s="7">
+        <v>361855</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="7">
+        <v>514</v>
+      </c>
+      <c r="I17" s="7">
+        <v>353514</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1016</v>
+      </c>
+      <c r="N17" s="7">
+        <v>715369</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>510</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>368008</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>527</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>362618</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1037</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>730626</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP19C05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C05-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09D0414B-A847-47CE-8EDE-BFB03FD4B185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{700C125A-CD4F-41B0-8048-B5982BE5FEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{53B4FB2B-71E0-4153-B657-30C6ACFCA5BD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{51EB23BA-F1CE-4E15-9B5C-677459038E2C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="206">
   <si>
     <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -112,37 +112,37 @@
     <t>0,85%</t>
   </si>
   <si>
-    <t>3,46%</t>
+    <t>3,96%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>3,89%</t>
+    <t>3,82%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>2,86%</t>
+    <t>3,03%</t>
   </si>
   <si>
     <t>99,15%</t>
   </si>
   <si>
-    <t>96,54%</t>
+    <t>96,04%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>96,11%</t>
+    <t>96,18%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>97,14%</t>
+    <t>96,97%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -151,13 +151,13 @@
     <t>1,48%</t>
   </si>
   <si>
-    <t>5,17%</t>
+    <t>5,38%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>3,24%</t>
+    <t>3,28%</t>
   </si>
   <si>
     <t>1,07%</t>
@@ -166,25 +166,25 @@
     <t>0,31%</t>
   </si>
   <si>
-    <t>2,87%</t>
+    <t>3,18%</t>
   </si>
   <si>
     <t>98,52%</t>
   </si>
   <si>
-    <t>94,83%</t>
+    <t>94,62%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>96,76%</t>
+    <t>96,72%</t>
   </si>
   <si>
     <t>98,93%</t>
   </si>
   <si>
-    <t>97,13%</t>
+    <t>96,82%</t>
   </si>
   <si>
     <t>99,69%</t>
@@ -196,16 +196,16 @@
     <t>0,74%</t>
   </si>
   <si>
-    <t>2,6%</t>
+    <t>2,24%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
   </si>
   <si>
     <t>1,0%</t>
@@ -214,403 +214,418 @@
     <t>0,38%</t>
   </si>
   <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>97,73%</t>
   </si>
   <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2016 (Tasa respuesta: 48,78%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
     <t>98,63%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2015 (Tasa respuesta: 48,78%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
   </si>
   <si>
     <t>3,57%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
   </si>
   <si>
     <t>96,43%</t>
   </si>
   <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
   </si>
   <si>
     <t>95,64%</t>
   </si>
   <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
   </si>
   <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>3,19%</t>
+    <t>3,37%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
+    <t>4,1%</t>
   </si>
   <si>
     <t>2,09%</t>
@@ -619,28 +634,25 @@
     <t>1,35%</t>
   </si>
   <si>
-    <t>3,12%</t>
+    <t>3,15%</t>
   </si>
   <si>
     <t>98,33%</t>
   </si>
   <si>
-    <t>96,81%</t>
+    <t>96,63%</t>
   </si>
   <si>
     <t>97,49%</t>
   </si>
   <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
+    <t>95,9%</t>
   </si>
   <si>
     <t>97,91%</t>
   </si>
   <si>
-    <t>96,88%</t>
+    <t>96,85%</t>
   </si>
   <si>
     <t>98,65%</t>
@@ -1055,7 +1067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227BB47D-E60B-4C0B-A129-5DDAA6B83DD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003C1F50-5FF1-4CAD-B735-DB5A747DA350}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1802,10 +1814,10 @@
         <v>67</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -1814,13 +1826,13 @@
         <v>3387</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -1829,13 +1841,13 @@
         <v>6918</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1850,13 +1862,13 @@
         <v>358199</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="H17" s="7">
         <v>517</v>
@@ -1865,13 +1877,13 @@
         <v>347543</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M17" s="7">
         <v>1057</v>
@@ -1880,13 +1892,13 @@
         <v>705743</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,7 +1954,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1962,7 +1974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927EF88D-7D8C-4BA5-BD28-E030CF2B9651}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688CB834-F7D8-4FB5-B8B6-D2F93A0DCDA7}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1979,7 +1991,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2092,7 +2104,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2107,7 +2119,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2140,7 +2152,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2155,7 +2167,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2241,13 +2253,13 @@
         <v>720</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2256,13 +2268,13 @@
         <v>443</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2271,13 +2283,13 @@
         <v>1163</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,10 +2304,10 @@
         <v>91344</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -2307,10 +2319,10 @@
         <v>77245</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -2322,10 +2334,10 @@
         <v>168588</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2396,13 +2408,13 @@
         <v>2084</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2411,13 +2423,13 @@
         <v>4536</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -2426,7 +2438,7 @@
         <v>6620</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>103</v>
@@ -2453,7 +2465,7 @@
         <v>106</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H11" s="7">
         <v>172</v>
@@ -2468,7 +2480,7 @@
         <v>108</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="M11" s="7">
         <v>359</v>
@@ -2477,13 +2489,13 @@
         <v>250552</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,13 +2563,13 @@
         <v>3414</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -2566,13 +2578,13 @@
         <v>4307</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -2581,13 +2593,13 @@
         <v>7721</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,13 +2614,13 @@
         <v>137769</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H14" s="7">
         <v>205</v>
@@ -2617,13 +2629,13 @@
         <v>143613</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M14" s="7">
         <v>409</v>
@@ -2632,13 +2644,13 @@
         <v>281382</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,13 +2718,13 @@
         <v>6218</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -2721,13 +2733,13 @@
         <v>9286</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -2736,13 +2748,13 @@
         <v>15504</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,13 +2769,13 @@
         <v>359784</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H17" s="7">
         <v>491</v>
@@ -2772,13 +2784,13 @@
         <v>344705</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M17" s="7">
         <v>1006</v>
@@ -2787,13 +2799,13 @@
         <v>704488</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2861,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2869,7 +2881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B38C6DF-C94E-4E37-82BD-30682A634CB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8179DAA7-1173-4175-9814-167057E74CA3}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2886,7 +2898,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2999,7 +3011,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3014,7 +3026,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3047,7 +3059,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3062,7 +3074,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3154,7 +3166,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3169,7 +3181,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3184,7 +3196,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,7 +3214,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3217,7 +3229,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3232,7 +3244,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3303,13 +3315,13 @@
         <v>1330</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3318,13 +3330,13 @@
         <v>2770</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -3333,13 +3345,13 @@
         <v>4100</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,10 +3366,10 @@
         <v>148011</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3369,13 +3381,13 @@
         <v>146147</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M11" s="7">
         <v>415</v>
@@ -3384,13 +3396,13 @@
         <v>294158</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3470,13 @@
         <v>4823</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3473,13 +3485,13 @@
         <v>6334</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -3488,13 +3500,13 @@
         <v>11157</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,13 +3521,13 @@
         <v>130432</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>199</v>
@@ -3524,13 +3536,13 @@
         <v>138771</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>376</v>
@@ -3539,13 +3551,13 @@
         <v>269203</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3625,13 @@
         <v>6153</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -3628,13 +3640,13 @@
         <v>9104</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -3643,13 +3655,13 @@
         <v>15257</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,13 +3676,13 @@
         <v>361855</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="H17" s="7">
         <v>514</v>
@@ -3679,13 +3691,13 @@
         <v>353514</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="M17" s="7">
         <v>1016</v>
@@ -3694,13 +3706,13 @@
         <v>715369</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,7 +3768,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{700C125A-CD4F-41B0-8048-B5982BE5FEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB27BB32-9184-413F-8E0D-D0C973857328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{51EB23BA-F1CE-4E15-9B5C-677459038E2C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D062FDDD-A998-4809-8474-0F2DE35DB17E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="202">
   <si>
     <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -79,12 +79,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>26,42%</t>
+  </si>
+  <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
     <t>18,74%</t>
   </si>
   <si>
@@ -94,70 +94,70 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>55,59%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
     <t>81,26%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
+    <t>4,28%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>3,03%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
   </si>
   <si>
     <t>99,15%</t>
   </si>
   <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>95,72%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>96,97%</t>
+    <t>97,21%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
+    <t>5,96%</t>
   </si>
   <si>
     <t>1,07%</t>
@@ -166,400 +166,400 @@
     <t>0,31%</t>
   </si>
   <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
   </si>
   <si>
     <t>96,82%</t>
   </si>
   <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2016 (Tasa respuesta: 48,78%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
   </si>
   <si>
     <t>99,51%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2016 (Tasa respuesta: 48,78%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
     <t>98,63%</t>
   </si>
   <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
   </si>
   <si>
     <t>3,57%</t>
@@ -568,16 +568,7 @@
     <t>1,25%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
+    <t>7,46%</t>
   </si>
   <si>
     <t>3,98%</t>
@@ -586,73 +577,70 @@
     <t>2,3%</t>
   </si>
   <si>
-    <t>6,16%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
   </si>
   <si>
     <t>96,43%</t>
   </si>
   <si>
-    <t>92,86%</t>
+    <t>92,54%</t>
   </si>
   <si>
     <t>98,75%</t>
   </si>
   <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>93,84%</t>
+    <t>93,6%</t>
   </si>
   <si>
     <t>97,7%</t>
   </si>
   <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
+    <t>0,66%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>3,15%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>98,33%</t>
   </si>
   <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>98,65%</t>
@@ -1067,7 +1055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003C1F50-5FF1-4CAD-B735-DB5A747DA350}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B249ABD0-EDB0-4351-9994-624A5EDD1B46}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1236,10 +1224,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>1893</v>
+        <v>3906</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1251,10 +1239,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>3906</v>
+        <v>1893</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1287,25 +1275,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3906</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1893</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3906</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1343,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>685</v>
+        <v>642</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1358,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>642</v>
+        <v>685</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>25</v>
@@ -1391,10 +1379,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D8" s="7">
-        <v>79733</v>
+        <v>83693</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>29</v>
@@ -1406,10 +1394,10 @@
         <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I8" s="7">
-        <v>83693</v>
+        <v>79733</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>31</v>
@@ -1442,25 +1430,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>127</v>
+      </c>
+      <c r="D9" s="7">
+        <v>84335</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>123</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>80418</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>127</v>
-      </c>
-      <c r="I9" s="7">
-        <v>84335</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1495,10 +1483,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1561</v>
+        <v>642</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>36</v>
@@ -1510,10 +1498,10 @@
         <v>37</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>642</v>
+        <v>1561</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>38</v>
@@ -1546,10 +1534,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D11" s="7">
-        <v>104158</v>
+        <v>98551</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>43</v>
@@ -1561,10 +1549,10 @@
         <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I11" s="7">
-        <v>98551</v>
+        <v>104158</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>45</v>
@@ -1597,25 +1585,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>148</v>
+      </c>
+      <c r="D12" s="7">
+        <v>99193</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>158</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>105719</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>148</v>
-      </c>
-      <c r="I12" s="7">
-        <v>99193</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1650,31 +1638,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>1286</v>
+        <v>2103</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1286</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2103</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>55</v>
@@ -1689,10 +1677,10 @@
         <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1701,25 +1689,25 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>238</v>
+      </c>
+      <c r="D14" s="7">
+        <v>161394</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="7">
         <v>259</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>172415</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>238</v>
-      </c>
-      <c r="I14" s="7">
-        <v>161394</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>61</v>
@@ -1728,7 +1716,7 @@
         <v>62</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
         <v>497</v>
@@ -1737,13 +1725,13 @@
         <v>333808</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1752,25 +1740,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>241</v>
+      </c>
+      <c r="D15" s="7">
+        <v>163497</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>261</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>173701</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>241</v>
-      </c>
-      <c r="I15" s="7">
-        <v>163497</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1808,31 +1796,31 @@
         <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>3532</v>
+        <v>3387</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>3387</v>
+        <v>3532</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -1841,13 +1829,13 @@
         <v>6918</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1856,34 +1844,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>517</v>
+      </c>
+      <c r="D17" s="7">
+        <v>347543</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="7">
         <v>540</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>358199</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="7">
-        <v>517</v>
-      </c>
-      <c r="I17" s="7">
-        <v>347543</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="M17" s="7">
         <v>1057</v>
@@ -1892,13 +1880,13 @@
         <v>705743</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1907,25 +1895,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>522</v>
+      </c>
+      <c r="D18" s="7">
+        <v>350930</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>545</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>361731</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>522</v>
-      </c>
-      <c r="I18" s="7">
-        <v>350930</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1954,7 +1942,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1974,7 +1962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688CB834-F7D8-4FB5-B8B6-D2F93A0DCDA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02D6813-098C-4EBC-B8CB-FDDB7E5585E6}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1991,7 +1979,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2104,7 +2092,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2119,7 +2107,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2134,7 +2122,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,31 +2131,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>669</v>
+        <v>3298</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>3298</v>
+        <v>669</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2182,7 +2170,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2194,25 +2182,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3298</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>669</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3298</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2250,31 +2238,31 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>720</v>
+        <v>443</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>443</v>
+        <v>720</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2283,13 +2271,13 @@
         <v>1163</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,31 +2286,31 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D8" s="7">
-        <v>91344</v>
+        <v>77245</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="I8" s="7">
-        <v>77245</v>
+        <v>91344</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -2334,10 +2322,10 @@
         <v>168588</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2349,25 +2337,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>110</v>
+      </c>
+      <c r="D9" s="7">
+        <v>77688</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>124</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>92064</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>110</v>
-      </c>
-      <c r="I9" s="7">
-        <v>77688</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2402,31 +2390,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>2084</v>
+        <v>4536</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>97</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>4536</v>
+        <v>2084</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>101</v>
@@ -2453,10 +2441,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D11" s="7">
-        <v>130002</v>
+        <v>120550</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>105</v>
@@ -2465,22 +2453,22 @@
         <v>106</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="H11" s="7">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="I11" s="7">
-        <v>120550</v>
+        <v>130002</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
         <v>359</v>
@@ -2504,25 +2492,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>178</v>
+      </c>
+      <c r="D12" s="7">
+        <v>125086</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>190</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>132086</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>178</v>
-      </c>
-      <c r="I12" s="7">
-        <v>125086</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2557,10 +2545,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>3414</v>
+        <v>4307</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>113</v>
@@ -2572,10 +2560,10 @@
         <v>115</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>4307</v>
+        <v>3414</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>116</v>
@@ -2608,10 +2596,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D14" s="7">
-        <v>137769</v>
+        <v>143613</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>122</v>
@@ -2623,10 +2611,10 @@
         <v>124</v>
       </c>
       <c r="H14" s="7">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I14" s="7">
-        <v>143613</v>
+        <v>137769</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>125</v>
@@ -2659,25 +2647,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>211</v>
+      </c>
+      <c r="D15" s="7">
+        <v>147920</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>209</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>141183</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>211</v>
-      </c>
-      <c r="I15" s="7">
-        <v>147920</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2712,10 +2700,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>6218</v>
+        <v>9286</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>131</v>
@@ -2727,10 +2715,10 @@
         <v>133</v>
       </c>
       <c r="H16" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>9286</v>
+        <v>6218</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>134</v>
@@ -2763,10 +2751,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="D17" s="7">
-        <v>359784</v>
+        <v>344705</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>140</v>
@@ -2778,10 +2766,10 @@
         <v>142</v>
       </c>
       <c r="H17" s="7">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="I17" s="7">
-        <v>344705</v>
+        <v>359784</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>143</v>
@@ -2796,7 +2784,7 @@
         <v>1006</v>
       </c>
       <c r="N17" s="7">
-        <v>704488</v>
+        <v>704489</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>146</v>
@@ -2814,25 +2802,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>504</v>
+      </c>
+      <c r="D18" s="7">
+        <v>353991</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>524</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>366002</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>504</v>
-      </c>
-      <c r="I18" s="7">
-        <v>353991</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2847,7 +2835,7 @@
         <v>1028</v>
       </c>
       <c r="N18" s="7">
-        <v>719992</v>
+        <v>719993</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -2861,7 +2849,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2881,7 +2869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8179DAA7-1173-4175-9814-167057E74CA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B4B8CD-50CF-4525-9744-C40DDD14D5A4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3011,7 +2999,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3026,7 +3014,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3041,7 +3029,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,31 +3038,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1284</v>
+        <v>536</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>536</v>
+        <v>1284</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3089,7 +3077,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3101,25 +3089,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>536</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1284</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>536</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3205,10 +3193,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D8" s="7">
-        <v>82129</v>
+        <v>68060</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -3220,10 +3208,10 @@
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="I8" s="7">
-        <v>68060</v>
+        <v>82129</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
@@ -3256,25 +3244,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>104</v>
+      </c>
+      <c r="D9" s="7">
+        <v>68060</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>118</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>82129</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>104</v>
-      </c>
-      <c r="I9" s="7">
-        <v>68060</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3309,34 +3297,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>1330</v>
+        <v>2770</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>158</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1330</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2770</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -3345,13 +3333,13 @@
         <v>4100</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,34 +3348,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>210</v>
+      </c>
+      <c r="D11" s="7">
+        <v>146147</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H11" s="7">
         <v>205</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>148011</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="7">
-        <v>210</v>
-      </c>
-      <c r="I11" s="7">
-        <v>146147</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>168</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
         <v>415</v>
@@ -3396,13 +3384,13 @@
         <v>294158</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,25 +3399,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>214</v>
+      </c>
+      <c r="D12" s="7">
+        <v>148917</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>207</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>149341</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>214</v>
-      </c>
-      <c r="I12" s="7">
-        <v>148917</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3464,34 +3452,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7">
+        <v>6334</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="7">
         <v>6</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>4823</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="H13" s="7">
-        <v>9</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6334</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -3500,13 +3488,13 @@
         <v>11157</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,34 +3503,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>199</v>
+      </c>
+      <c r="D14" s="7">
+        <v>138771</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="7">
         <v>177</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>130432</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H14" s="7">
-        <v>199</v>
-      </c>
-      <c r="I14" s="7">
-        <v>138771</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>376</v>
@@ -3551,13 +3539,13 @@
         <v>269203</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,25 +3554,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>208</v>
+      </c>
+      <c r="D15" s="7">
+        <v>145105</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>183</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>135255</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>208</v>
-      </c>
-      <c r="I15" s="7">
-        <v>145105</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3619,34 +3607,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7">
+        <v>9104</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" s="7">
         <v>8</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>6153</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H16" s="7">
-        <v>13</v>
-      </c>
-      <c r="I16" s="7">
-        <v>9104</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -3655,13 +3643,13 @@
         <v>15257</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,34 +3658,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>514</v>
+      </c>
+      <c r="D17" s="7">
+        <v>353514</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H17" s="7">
         <v>502</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>361855</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="7">
-        <v>514</v>
-      </c>
-      <c r="I17" s="7">
-        <v>353514</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M17" s="7">
         <v>1016</v>
@@ -3706,13 +3694,13 @@
         <v>715369</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>73</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,25 +3709,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>527</v>
+      </c>
+      <c r="D18" s="7">
+        <v>362618</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>510</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>368008</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>527</v>
-      </c>
-      <c r="I18" s="7">
-        <v>362618</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3768,7 +3756,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
